--- a/biology/Zoologie/Ctenotus_rimacolus/Ctenotus_rimacolus.xlsx
+++ b/biology/Zoologie/Ctenotus_rimacolus/Ctenotus_rimacolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenotus rimacolus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenotus rimacolus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique dans la région d'Ord Victoria en Australie-Occidentale en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique dans la région d'Ord Victoria en Australie-Occidentale en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 septembre 2012) :
 Ctenotus rimacolus camptris Horner &amp; Fisher, 1998
 Ctenotus rimacolus rimacolus Horner &amp; Fisher, 1998</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique rimacolus vient du latin rima, la fissure, et colus, séjourner, en référence a la répartition de ce saurien dans les fissures des sols argileux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique rimacolus vient du latin rima, la fissure, et colus, séjourner, en référence a la répartition de ce saurien dans les fissures des sols argileux.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Horner &amp; Fisher, 1998 : Ctenotus rimacola sp. nov. (Scincidae), a new species of lizard with two allopatric subspecies, from the Ord-Victoria region of northwestern Australia. Records of the Western Australian Museum, vol. 19, no 2, p. 187-200 (texte intégral).</t>
         </is>
